--- a/src/test/resources/map2.xlsx
+++ b/src/test/resources/map2.xlsx
@@ -17,64 +17,64 @@
     <t>http://aicixi.img-cn-shanghai.aliyuncs.com/20170901081437610_44.jpg</t>
   </si>
   <si>
-    <t>用户1912681121</t>
-  </si>
-  <si>
-    <t>用户-2019237513</t>
-  </si>
-  <si>
-    <t>用户1790392967</t>
-  </si>
-  <si>
-    <t>用户-1271318700</t>
-  </si>
-  <si>
-    <t>用户512061319</t>
-  </si>
-  <si>
-    <t>用户-1601446013</t>
-  </si>
-  <si>
-    <t>用户32010212</t>
-  </si>
-  <si>
-    <t>用户-370682556</t>
-  </si>
-  <si>
-    <t>用户1647862624</t>
-  </si>
-  <si>
-    <t>用户-703394004</t>
-  </si>
-  <si>
-    <t>用户-849137053</t>
-  </si>
-  <si>
-    <t>用户-75113966</t>
-  </si>
-  <si>
-    <t>用户-783422732</t>
-  </si>
-  <si>
-    <t>用户-314658918</t>
-  </si>
-  <si>
-    <t>用户-529224479</t>
-  </si>
-  <si>
-    <t>用户-1676930173</t>
-  </si>
-  <si>
-    <t>用户1902078888</t>
-  </si>
-  <si>
-    <t>用户246311249</t>
-  </si>
-  <si>
-    <t>用户1991974919</t>
-  </si>
-  <si>
-    <t>用户-254613533</t>
+    <t>用户-728414324</t>
+  </si>
+  <si>
+    <t>用户-2111204787</t>
+  </si>
+  <si>
+    <t>用户55353891</t>
+  </si>
+  <si>
+    <t>用户596141678</t>
+  </si>
+  <si>
+    <t>用户1452400899</t>
+  </si>
+  <si>
+    <t>用户988410913</t>
+  </si>
+  <si>
+    <t>用户-1900504259</t>
+  </si>
+  <si>
+    <t>用户-1953027696</t>
+  </si>
+  <si>
+    <t>用户-1919297357</t>
+  </si>
+  <si>
+    <t>用户-67423829</t>
+  </si>
+  <si>
+    <t>用户599236786</t>
+  </si>
+  <si>
+    <t>用户552074631</t>
+  </si>
+  <si>
+    <t>用户1976068790</t>
+  </si>
+  <si>
+    <t>用户971245023</t>
+  </si>
+  <si>
+    <t>用户-748640223</t>
+  </si>
+  <si>
+    <t>用户-171742339</t>
+  </si>
+  <si>
+    <t>用户-1319852267</t>
+  </si>
+  <si>
+    <t>用户-1734465679</t>
+  </si>
+  <si>
+    <t>用户-1904030292</t>
+  </si>
+  <si>
+    <t>用户-1367198615</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
     <col min="2" max="2" width="12.0" customWidth="true"/>
     <col min="3" max="3" width="77.0" customWidth="true"/>
     <col min="4" max="4" width="21.0" customWidth="true"/>
-    <col min="5" max="5" width="27.0" customWidth="true"/>
+    <col min="5" max="5" width="25.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -144,13 +144,13 @@
         <v>1.0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>1.067889636E9</v>
+        <v>5.41821145E8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -161,13 +161,13 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>10.0</v>
+        <v>91.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>-1.77166813E9</v>
+        <v>6.06615414E8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -178,13 +178,13 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>35.0</v>
+        <v>86.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>4.32247995E8</v>
+        <v>-2.62900481E8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -195,13 +195,13 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>74.0</v>
+        <v>51.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>-1.27724063E8</v>
+        <v>9.09568057E8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -212,13 +212,13 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>98.0</v>
+        <v>28.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-1.776759783E9</v>
+        <v>7.15273839E8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -229,13 +229,13 @@
         <v>6.0</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>66.0</v>
+        <v>3.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-1.256954153E9</v>
+        <v>1.95570818E8</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -246,13 +246,13 @@
         <v>7.0</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>96.0</v>
+        <v>39.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-1.085547714E9</v>
+        <v>8.24444586E8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -263,13 +263,13 @@
         <v>8.0</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>57.0</v>
+        <v>92.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-2.143547954E9</v>
+        <v>-4.99992383E8</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -280,13 +280,13 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>83.0</v>
+        <v>9.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>1.151832549E9</v>
+        <v>-1.597015944E9</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -297,13 +297,13 @@
         <v>10.0</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>94.0</v>
+        <v>67.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>7.01859543E8</v>
+        <v>1.677208757E9</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -314,13 +314,13 @@
         <v>11.0</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>31.0</v>
+        <v>85.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>1.013888545E9</v>
+        <v>8.82008915E8</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -331,13 +331,13 @@
         <v>12.0</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>63.0</v>
+        <v>11.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>1.696743577E9</v>
+        <v>-3.9527144E8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -348,13 +348,13 @@
         <v>13.0</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>35.0</v>
+        <v>16.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-2.27438526E8</v>
+        <v>-1.11098258E8</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -365,13 +365,13 @@
         <v>14.0</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>86.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-1.7707327E7</v>
+        <v>4.13627256E8</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -382,13 +382,13 @@
         <v>15.0</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>67.0</v>
+        <v>21.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>1.007035008E9</v>
+        <v>5.13560205E8</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
@@ -399,13 +399,13 @@
         <v>16.0</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>50.0</v>
+        <v>78.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>5.4888446E8</v>
+        <v>1.755977785E9</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
@@ -416,13 +416,13 @@
         <v>17.0</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>67.0</v>
+        <v>30.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>1.477269084E9</v>
+        <v>-1.485139932E9</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
@@ -433,13 +433,13 @@
         <v>18.0</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>62.0</v>
+        <v>18.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>-1.289473195E9</v>
+        <v>-1.762759417E9</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
@@ -450,13 +450,13 @@
         <v>19.0</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>47.0</v>
+        <v>84.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>1.285544439E9</v>
+        <v>8.65418102E8</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -467,13 +467,13 @@
         <v>20.0</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>-9.48901902E8</v>
+        <v>8.19557989E8</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>20</v>
